--- a/data/DatabasesWasteAndMaterial/WasteAndMaterialFootprint.xlsx
+++ b/data/DatabasesWasteAndMaterial/WasteAndMaterialFootprint.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B398"/>
+  <dimension ref="A1:B404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,7 +442,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MaterialFootprint_antimony</t>
+          <t>MaterialFootprint_aluminium</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Antimony</t>
+          <t>Aluminium</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MaterialFootprint_bauxite</t>
+          <t>MaterialFootprint_antimony</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bauxite</t>
+          <t>Antimony</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MaterialFootprint_beryllium</t>
+          <t>MaterialFootprint_bauxite</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Beryllium</t>
+          <t>Bauxite</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MaterialFootprint_borates</t>
+          <t>MaterialFootprint_beryllium</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Borates</t>
+          <t>Beryllium</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MaterialFootprint_cadmium</t>
+          <t>MaterialFootprint_borates</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cadmium</t>
+          <t>Borates</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MaterialFootprint_cement</t>
+          <t>MaterialFootprint_cadmium</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cement</t>
+          <t>Cadmium</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MaterialFootprint_cerium</t>
+          <t>MaterialFootprint_cement</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cerium</t>
+          <t>Cement</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MaterialFootprint_chromium</t>
+          <t>MaterialFootprint_cerium</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chromium</t>
+          <t>Cerium</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MaterialFootprint_coal</t>
+          <t>MaterialFootprint_chromium</t>
         </is>
       </c>
     </row>
@@ -970,7 +970,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Coal</t>
+          <t>Chromium</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MaterialFootprint_cobalt</t>
+          <t>MaterialFootprint_coal</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Cobalt</t>
+          <t>Coal</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MaterialFootprint_coke</t>
+          <t>MaterialFootprint_cobalt</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Coke</t>
+          <t>Cobalt</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MaterialFootprint_copper</t>
+          <t>MaterialFootprint_coke</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Copper</t>
+          <t>Coke</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MaterialFootprint_dysprosium</t>
+          <t>MaterialFootprint_copper</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Dysprosium</t>
+          <t>Copper</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MaterialFootprint_electricity</t>
+          <t>MaterialFootprint_dysprosium</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Electricity</t>
+          <t>Dysprosium</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>kilowatt hour</t>
+          <t>kilogram</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MaterialFootprint_erbium</t>
+          <t>MaterialFootprint_electricity</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Erbium</t>
+          <t>Electricity</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>kilogram</t>
+          <t>kilowatt hour</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MaterialFootprint_europium</t>
+          <t>MaterialFootprint_erbium</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Europium</t>
+          <t>Erbium</t>
         </is>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MaterialFootprint_fluorspar</t>
+          <t>MaterialFootprint_europium</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Fluorspar</t>
+          <t>Europium</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MaterialFootprint_gadolinium</t>
+          <t>MaterialFootprint_fluorspar</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Gadolinium</t>
+          <t>Fluorspar</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MaterialFootprint_gallium</t>
+          <t>MaterialFootprint_gadolinium</t>
         </is>
       </c>
     </row>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Gallium</t>
+          <t>Gadolinium</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MaterialFootprint_gold</t>
+          <t>MaterialFootprint_gallium</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Gallium</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MaterialFootprint_graphite</t>
+          <t>MaterialFootprint_gold</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Graphite</t>
+          <t>Gold</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MaterialFootprint_helium</t>
+          <t>MaterialFootprint_graphite</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Helium</t>
+          <t>Graphite</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MaterialFootprint_holmium</t>
+          <t>MaterialFootprint_helium</t>
         </is>
       </c>
     </row>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Holmium</t>
+          <t>Helium</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MaterialFootprint_hydrogen</t>
+          <t>MaterialFootprint_holmium</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Holmium</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MaterialFootprint_indium</t>
+          <t>MaterialFootprint_hydrogen</t>
         </is>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Indium</t>
+          <t>Hydrogen</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MaterialFootprint_latex</t>
+          <t>MaterialFootprint_indium</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Latex</t>
+          <t>Indium</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MaterialFootprint_lithium</t>
+          <t>MaterialFootprint_latex</t>
         </is>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Lithium</t>
+          <t>Latex</t>
         </is>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MaterialFootprint_magnesium</t>
+          <t>MaterialFootprint_lithium</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Magnesium</t>
+          <t>Lithium</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>MaterialFootprint_natural gas</t>
+          <t>MaterialFootprint_magnesium</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Natural gas</t>
+          <t>Magnesium</t>
         </is>
       </c>
     </row>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>cubic meter</t>
+          <t>kilogram</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MaterialFootprint_nickel</t>
+          <t>MaterialFootprint_natural gas</t>
         </is>
       </c>
     </row>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Nickel</t>
+          <t>Natural gas</t>
         </is>
       </c>
     </row>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>kilogram</t>
+          <t>cubic meter</t>
         </is>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>MaterialFootprint_palladium</t>
+          <t>MaterialFootprint_nickel</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Palladium</t>
+          <t>Nickel</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>MaterialFootprint_petroleum</t>
+          <t>MaterialFootprint_palladium</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Petroleum</t>
+          <t>Palladium</t>
         </is>
       </c>
     </row>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MaterialFootprint_phosphate rock</t>
+          <t>MaterialFootprint_petroleum</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Phosphate rock</t>
+          <t>Petroleum</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>MaterialFootprint_platinum</t>
+          <t>MaterialFootprint_phosphate rock</t>
         </is>
       </c>
     </row>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Platinum</t>
+          <t>Phosphate rock</t>
         </is>
       </c>
     </row>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>MaterialFootprint_rare earth</t>
+          <t>MaterialFootprint_platinum</t>
         </is>
       </c>
     </row>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Rare earth</t>
+          <t>Platinum</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>MaterialFootprint_rhodium</t>
+          <t>MaterialFootprint_rare earth</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Rhodium</t>
+          <t>Rare earth</t>
         </is>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>MaterialFootprint_sand</t>
+          <t>MaterialFootprint_rhodium</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Sand</t>
+          <t>Rhodium</t>
         </is>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MaterialFootprint_scandium</t>
+          <t>MaterialFootprint_sand</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Scandium</t>
+          <t>Sand</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>MaterialFootprint_selenium</t>
+          <t>MaterialFootprint_scandium</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Selenium</t>
+          <t>Scandium</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>MaterialFootprint_silicon</t>
+          <t>MaterialFootprint_selenium</t>
         </is>
       </c>
     </row>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Silicon</t>
+          <t>Selenium</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>MaterialFootprint_silver</t>
+          <t>MaterialFootprint_silicon</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Silicon</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>MaterialFootprint_strontium</t>
+          <t>MaterialFootprint_silver</t>
         </is>
       </c>
     </row>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Strontium</t>
+          <t>Silver</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>MaterialFootprint_tantalum</t>
+          <t>MaterialFootprint_strontium</t>
         </is>
       </c>
     </row>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Tantalum</t>
+          <t>Strontium</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>MaterialFootprint_tellurium</t>
+          <t>MaterialFootprint_tantalum</t>
         </is>
       </c>
     </row>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Tellurium</t>
+          <t>Tantalum</t>
         </is>
       </c>
     </row>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>MaterialFootprint_tin</t>
+          <t>MaterialFootprint_tellurium</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Tin</t>
+          <t>Tellurium</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>MaterialFootprint_titanium</t>
+          <t>MaterialFootprint_tin</t>
         </is>
       </c>
     </row>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Titanium</t>
+          <t>Tin</t>
         </is>
       </c>
     </row>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>MaterialFootprint_tungsten</t>
+          <t>MaterialFootprint_titanium</t>
         </is>
       </c>
     </row>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Tungsten</t>
+          <t>Titanium</t>
         </is>
       </c>
     </row>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>MaterialFootprint_uranium</t>
+          <t>MaterialFootprint_tungsten</t>
         </is>
       </c>
     </row>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Uranium</t>
+          <t>Tungsten</t>
         </is>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>MaterialFootprint_vegetable oil</t>
+          <t>MaterialFootprint_uranium</t>
         </is>
       </c>
     </row>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Vegetable oil</t>
+          <t>Uranium</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>MaterialFootprint_water</t>
+          <t>MaterialFootprint_vegetable oil</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Vegetable oil</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>cubic meter</t>
+          <t>kilogram</t>
         </is>
       </c>
     </row>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>MaterialFootprint_zinc</t>
+          <t>MaterialFootprint_water</t>
         </is>
       </c>
     </row>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Zinc</t>
+          <t>Water</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>kilogram</t>
+          <t>cubic meter</t>
         </is>
       </c>
     </row>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>MaterialFootprint_zirconium</t>
+          <t>MaterialFootprint_zinc</t>
         </is>
       </c>
     </row>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Zirconium</t>
+          <t>Zinc</t>
         </is>
       </c>
     </row>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>WasteFootprint_carbondioxide-kilogram</t>
+          <t>MaterialFootprint_zirconium</t>
         </is>
       </c>
     </row>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Carbondioxide (kg)</t>
+          <t>Zirconium</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>waste</t>
+          <t>natural resource</t>
         </is>
       </c>
     </row>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>WasteFootprint_composting-kilogram</t>
+          <t>WasteFootprint_carbondioxide-kilogram</t>
         </is>
       </c>
     </row>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Composting (kg)</t>
+          <t>Carbondioxide (kg)</t>
         </is>
       </c>
     </row>
@@ -3844,7 +3844,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>WasteFootprint_digestion-cubicmeter</t>
+          <t>WasteFootprint_composting-kilogram</t>
         </is>
       </c>
     </row>
@@ -3868,7 +3868,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Digestion (m3)</t>
+          <t>Composting (kg)</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>cubic meter</t>
+          <t>kilogram</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>WasteFootprint_digestion-kilogram</t>
+          <t>WasteFootprint_digestion-cubicmeter</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Digestion (kg)</t>
+          <t>Digestion (m3)</t>
         </is>
       </c>
     </row>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>kilogram</t>
+          <t>cubic meter</t>
         </is>
       </c>
     </row>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>WasteFootprint_hazardous-cubicmeter</t>
+          <t>WasteFootprint_digestion-kilogram</t>
         </is>
       </c>
     </row>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Hazardous (m3)</t>
+          <t>Digestion (kg)</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>cubic meter</t>
+          <t>kilogram</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>WasteFootprint_hazardous-kilogram</t>
+          <t>WasteFootprint_hazardous-cubicmeter</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Hazardous (kg)</t>
+          <t>Hazardous (m3)</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>kilogram</t>
+          <t>cubic meter</t>
         </is>
       </c>
     </row>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>WasteFootprint_incineration-cubicmeter</t>
+          <t>WasteFootprint_hazardous-kilogram</t>
         </is>
       </c>
     </row>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Incineration (m3)</t>
+          <t>Hazardous (kg)</t>
         </is>
       </c>
     </row>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>cubic meter</t>
+          <t>kilogram</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>WasteFootprint_incineration-kilogram</t>
+          <t>WasteFootprint_incineration-cubicmeter</t>
         </is>
       </c>
     </row>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Incineration (kg)</t>
+          <t>Incineration (m3)</t>
         </is>
       </c>
     </row>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>kilogram</t>
+          <t>cubic meter</t>
         </is>
       </c>
     </row>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>WasteFootprint_landfill-cubicmeter</t>
+          <t>WasteFootprint_incineration-kilogram</t>
         </is>
       </c>
     </row>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Landfill (m3)</t>
+          <t>Incineration (kg)</t>
         </is>
       </c>
     </row>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>cubic meter</t>
+          <t>kilogram</t>
         </is>
       </c>
     </row>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>WasteFootprint_landfill-kilogram</t>
+          <t>WasteFootprint_landfill-cubicmeter</t>
         </is>
       </c>
     </row>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Landfill (kg)</t>
+          <t>Landfill (m3)</t>
         </is>
       </c>
     </row>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>kilogram</t>
+          <t>cubic meter</t>
         </is>
       </c>
     </row>
@@ -4348,7 +4348,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>WasteFootprint_openburning-kilogram</t>
+          <t>WasteFootprint_landfill-kilogram</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Openburning (kg)</t>
+          <t>Landfill (kg)</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>WasteFootprint_recycling-kilogram</t>
+          <t>WasteFootprint_openburning-kilogram</t>
         </is>
       </c>
     </row>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Recycling (kg)</t>
+          <t>Openburning (kg)</t>
         </is>
       </c>
     </row>
@@ -4474,7 +4474,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>WasteFootprint_total-cubicmeter</t>
+          <t>WasteFootprint_recycling-kilogram</t>
         </is>
       </c>
     </row>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Total (m3)</t>
+          <t>Recycling (kg)</t>
         </is>
       </c>
     </row>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>cubic meter</t>
+          <t>kilogram</t>
         </is>
       </c>
     </row>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>WasteFootprint_total-kilogram</t>
+          <t>WasteFootprint_total-cubicmeter</t>
         </is>
       </c>
     </row>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Total (kg)</t>
+          <t>Total (m3)</t>
         </is>
       </c>
     </row>
@@ -4573,7 +4573,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>kilogram</t>
+          <t>cubic meter</t>
         </is>
       </c>
     </row>
@@ -4591,6 +4591,69 @@
     </row>
     <row r="398">
       <c r="A398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>WasteFootprint_total-kilogram</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>categories</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>water, air, land</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Total (kg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>kilogram</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>waste</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
